--- a/Masjid/output/SPMD00000/SenaraiWargaEmas.xlsx
+++ b/Masjid/output/SPMD00000/SenaraiWargaEmas.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>MASJID PRO</t>
   </si>
   <si>
-    <t>Senarai Ahli Kariah Warga Emas</t>
+    <t>Senarai Wargaemas</t>
   </si>
   <si>
     <t>No</t>
@@ -29,20 +29,76 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>No.IC</t>
+    <t>No. KP</t>
+  </si>
+  <si>
+    <t>Tarikh Lahir</t>
   </si>
   <si>
     <t>Umur</t>
   </si>
   <si>
+    <t>No.Telefon</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>ALIAS</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t>0125874968</t>
+  </si>
+  <si>
+    <t>NO 9, LORONG KULIM 2, KULIM</t>
+  </si>
+  <si>
     <t>AFEEYA BINTI KASIM</t>
+  </si>
+  <si>
+    <t>1943-09-18</t>
+  </si>
+  <si>
+    <t>0198725634</t>
+  </si>
+  <si>
+    <t>JALAN 14, TAMAN KUALA MUDA 2</t>
+  </si>
+  <si>
+    <t>AINA BINTI KHAIRI</t>
+  </si>
+  <si>
+    <t>1966-02-10</t>
+  </si>
+  <si>
+    <t>0175367289</t>
+  </si>
+  <si>
+    <t>JALAN TAMBAK SEMBELONG 3, KOTA SETAR</t>
+  </si>
+  <si>
+    <t>ABDUL GHANI BIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>1971-04-15</t>
+  </si>
+  <si>
+    <t>0136754321</t>
+  </si>
+  <si>
+    <t>1420, KG KUALA MUDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <b val="0"/>
@@ -118,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -129,6 +185,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -430,32 +489,34 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="true" style="0"/>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customHeight="1" ht="62">
+    <row r="5" spans="1:8" customHeight="1" ht="62">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -468,19 +529,106 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>990215029854</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>430918045698</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
         <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>660210098765</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>710415076854</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
